--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.1292047809705</v>
+        <v>31.42447466666667</v>
       </c>
       <c r="H2">
-        <v>31.1292047809705</v>
+        <v>94.27342400000001</v>
       </c>
       <c r="I2">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="J2">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.633267873615</v>
+        <v>108.2550863333333</v>
       </c>
       <c r="N2">
-        <v>105.633267873615</v>
+        <v>324.765259</v>
       </c>
       <c r="O2">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="P2">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="Q2">
-        <v>3288.279627320874</v>
+        <v>3401.859218019647</v>
       </c>
       <c r="R2">
-        <v>3288.279627320874</v>
+        <v>30616.73296217682</v>
       </c>
       <c r="S2">
-        <v>0.06225404890120639</v>
+        <v>0.06195758992108565</v>
       </c>
       <c r="T2">
-        <v>0.06225404890120639</v>
+        <v>0.06195758992108565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.1292047809705</v>
+        <v>31.42447466666667</v>
       </c>
       <c r="H3">
-        <v>31.1292047809705</v>
+        <v>94.27342400000001</v>
       </c>
       <c r="I3">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="J3">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>281.278201979299</v>
+        <v>284.3623303333333</v>
       </c>
       <c r="N3">
-        <v>281.278201979299</v>
+        <v>853.0869909999999</v>
       </c>
       <c r="O3">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="P3">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="Q3">
-        <v>8755.966749836782</v>
+        <v>8935.936845714132</v>
       </c>
       <c r="R3">
-        <v>8755.966749836782</v>
+        <v>80423.43161142718</v>
       </c>
       <c r="S3">
-        <v>0.1657688651818799</v>
+        <v>0.1627489778867969</v>
       </c>
       <c r="T3">
-        <v>0.1657688651818799</v>
+        <v>0.1627489778867969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.1292047809705</v>
+        <v>31.42447466666667</v>
       </c>
       <c r="H4">
-        <v>31.1292047809705</v>
+        <v>94.27342400000001</v>
       </c>
       <c r="I4">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="J4">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>177.557448322067</v>
+        <v>178.4792176666666</v>
       </c>
       <c r="N4">
-        <v>177.557448322067</v>
+        <v>535.437653</v>
       </c>
       <c r="O4">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="P4">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="Q4">
-        <v>5527.22216920421</v>
+        <v>5608.615654092652</v>
       </c>
       <c r="R4">
-        <v>5527.22216920421</v>
+        <v>50477.54088683387</v>
       </c>
       <c r="S4">
-        <v>0.1046419399221896</v>
+        <v>0.1021489386981584</v>
       </c>
       <c r="T4">
-        <v>0.1046419399221896</v>
+        <v>0.1021489386981585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.1292047809705</v>
+        <v>31.42447466666667</v>
       </c>
       <c r="H5">
-        <v>31.1292047809705</v>
+        <v>94.27342400000001</v>
       </c>
       <c r="I5">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="J5">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>158.530890115239</v>
+        <v>165.0353776666667</v>
       </c>
       <c r="N5">
-        <v>158.530890115239</v>
+        <v>495.106133</v>
       </c>
       <c r="O5">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="P5">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="Q5">
-        <v>4934.940542506807</v>
+        <v>5186.150044589933</v>
       </c>
       <c r="R5">
-        <v>4934.940542506807</v>
+        <v>46675.35040130939</v>
       </c>
       <c r="S5">
-        <v>0.09342880310579679</v>
+        <v>0.09445463117047409</v>
       </c>
       <c r="T5">
-        <v>0.09342880310579679</v>
+        <v>0.09445463117047409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.1292047809705</v>
+        <v>31.42447466666667</v>
       </c>
       <c r="H6">
-        <v>31.1292047809705</v>
+        <v>94.27342400000001</v>
       </c>
       <c r="I6">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="J6">
-        <v>0.4954472641118904</v>
+        <v>0.4928710158854971</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>117.679866219542</v>
+        <v>125.0343833333333</v>
       </c>
       <c r="N6">
-        <v>117.679866219542</v>
+        <v>375.10315</v>
       </c>
       <c r="O6">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="P6">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="Q6">
-        <v>3663.280654145336</v>
+        <v>3929.139811520623</v>
       </c>
       <c r="R6">
-        <v>3663.280654145336</v>
+        <v>35362.2583036856</v>
       </c>
       <c r="S6">
-        <v>0.06935360700081768</v>
+        <v>0.07156087820898194</v>
       </c>
       <c r="T6">
-        <v>0.06935360700081768</v>
+        <v>0.07156087820898197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.0669242286701</v>
+        <v>25.15276066666667</v>
       </c>
       <c r="H7">
-        <v>25.0669242286701</v>
+        <v>75.458282</v>
       </c>
       <c r="I7">
-        <v>0.3989610115702887</v>
+        <v>0.3945035464747129</v>
       </c>
       <c r="J7">
-        <v>0.3989610115702887</v>
+        <v>0.394503546474713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.633267873615</v>
+        <v>108.2550863333333</v>
       </c>
       <c r="N7">
-        <v>105.633267873615</v>
+        <v>324.765259</v>
       </c>
       <c r="O7">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="P7">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="Q7">
-        <v>2647.901121814719</v>
+        <v>2722.914277491671</v>
       </c>
       <c r="R7">
-        <v>2647.901121814719</v>
+        <v>24506.22849742504</v>
       </c>
       <c r="S7">
-        <v>0.05013033701678171</v>
+        <v>0.04959205992460439</v>
       </c>
       <c r="T7">
-        <v>0.05013033701678171</v>
+        <v>0.0495920599246044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.0669242286701</v>
+        <v>25.15276066666667</v>
       </c>
       <c r="H8">
-        <v>25.0669242286701</v>
+        <v>75.458282</v>
       </c>
       <c r="I8">
-        <v>0.3989610115702887</v>
+        <v>0.3945035464747129</v>
       </c>
       <c r="J8">
-        <v>0.3989610115702887</v>
+        <v>0.394503546474713</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>281.278201979299</v>
+        <v>284.3623303333333</v>
       </c>
       <c r="N8">
-        <v>281.278201979299</v>
+        <v>853.0869909999999</v>
       </c>
       <c r="O8">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="P8">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="Q8">
-        <v>7050.779376191653</v>
+        <v>7152.49763748994</v>
       </c>
       <c r="R8">
-        <v>7050.779376191653</v>
+        <v>64372.47873740945</v>
       </c>
       <c r="S8">
-        <v>0.1334860820321047</v>
+        <v>0.1302674470441817</v>
       </c>
       <c r="T8">
-        <v>0.1334860820321047</v>
+        <v>0.1302674470441817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.0669242286701</v>
+        <v>25.15276066666667</v>
       </c>
       <c r="H9">
-        <v>25.0669242286701</v>
+        <v>75.458282</v>
       </c>
       <c r="I9">
-        <v>0.3989610115702887</v>
+        <v>0.3945035464747129</v>
       </c>
       <c r="J9">
-        <v>0.3989610115702887</v>
+        <v>0.394503546474713</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>177.557448322067</v>
+        <v>178.4792176666666</v>
       </c>
       <c r="N9">
-        <v>177.557448322067</v>
+        <v>535.437653</v>
       </c>
       <c r="O9">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="P9">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="Q9">
-        <v>4450.819103325261</v>
+        <v>4489.245045943571</v>
       </c>
       <c r="R9">
-        <v>4450.819103325261</v>
+        <v>40403.20541349214</v>
       </c>
       <c r="S9">
-        <v>0.08426336610995172</v>
+        <v>0.08176199712748687</v>
       </c>
       <c r="T9">
-        <v>0.08426336610995172</v>
+        <v>0.0817619971274869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.0669242286701</v>
+        <v>25.15276066666667</v>
       </c>
       <c r="H10">
-        <v>25.0669242286701</v>
+        <v>75.458282</v>
       </c>
       <c r="I10">
-        <v>0.3989610115702887</v>
+        <v>0.3945035464747129</v>
       </c>
       <c r="J10">
-        <v>0.3989610115702887</v>
+        <v>0.394503546474713</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>158.530890115239</v>
+        <v>165.0353776666667</v>
       </c>
       <c r="N10">
-        <v>158.530890115239</v>
+        <v>495.106133</v>
       </c>
       <c r="O10">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="P10">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="Q10">
-        <v>3973.881810422322</v>
+        <v>4151.095355982612</v>
       </c>
       <c r="R10">
-        <v>3973.881810422322</v>
+        <v>37359.85820384351</v>
       </c>
       <c r="S10">
-        <v>0.0752339401120844</v>
+        <v>0.07560332374336613</v>
       </c>
       <c r="T10">
-        <v>0.0752339401120844</v>
+        <v>0.07560332374336615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.0669242286701</v>
+        <v>25.15276066666667</v>
       </c>
       <c r="H11">
-        <v>25.0669242286701</v>
+        <v>75.458282</v>
       </c>
       <c r="I11">
-        <v>0.3989610115702887</v>
+        <v>0.3945035464747129</v>
       </c>
       <c r="J11">
-        <v>0.3989610115702887</v>
+        <v>0.394503546474713</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.679866219542</v>
+        <v>125.0343833333333</v>
       </c>
       <c r="N11">
-        <v>117.679866219542</v>
+        <v>375.10315</v>
       </c>
       <c r="O11">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="P11">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="Q11">
-        <v>2949.872289765294</v>
+        <v>3144.959919087589</v>
       </c>
       <c r="R11">
-        <v>2949.872289765294</v>
+        <v>28304.6392717883</v>
       </c>
       <c r="S11">
-        <v>0.05584728629936628</v>
+        <v>0.0572787186350738</v>
       </c>
       <c r="T11">
-        <v>0.05584728629936628</v>
+        <v>0.05727871863507382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0784141064124855</v>
+        <v>0.1264193333333333</v>
       </c>
       <c r="H12">
-        <v>0.0784141064124855</v>
+        <v>0.379258</v>
       </c>
       <c r="I12">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="J12">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.633267873615</v>
+        <v>108.2550863333333</v>
       </c>
       <c r="N12">
-        <v>105.633267873615</v>
+        <v>324.765259</v>
       </c>
       <c r="O12">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="P12">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="Q12">
-        <v>8.283138307740233</v>
+        <v>13.68553584420244</v>
       </c>
       <c r="R12">
-        <v>8.283138307740233</v>
+        <v>123.169822597822</v>
       </c>
       <c r="S12">
-        <v>0.0001568172283710706</v>
+        <v>0.0002492527654272014</v>
       </c>
       <c r="T12">
-        <v>0.0001568172283710706</v>
+        <v>0.0002492527654272014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0784141064124855</v>
+        <v>0.1264193333333333</v>
       </c>
       <c r="H13">
-        <v>0.0784141064124855</v>
+        <v>0.379258</v>
       </c>
       <c r="I13">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="J13">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>281.278201979299</v>
+        <v>284.3623303333333</v>
       </c>
       <c r="N13">
-        <v>281.278201979299</v>
+        <v>853.0869909999999</v>
       </c>
       <c r="O13">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="P13">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="Q13">
-        <v>22.05617886151734</v>
+        <v>35.9488962258531</v>
       </c>
       <c r="R13">
-        <v>22.05617886151734</v>
+        <v>323.5400660326779</v>
       </c>
       <c r="S13">
-        <v>0.000417569852031525</v>
+        <v>0.0006547322589597554</v>
       </c>
       <c r="T13">
-        <v>0.000417569852031525</v>
+        <v>0.0006547322589597554</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0784141064124855</v>
+        <v>0.1264193333333333</v>
       </c>
       <c r="H14">
-        <v>0.0784141064124855</v>
+        <v>0.379258</v>
       </c>
       <c r="I14">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="J14">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>177.557448322067</v>
+        <v>178.4792176666666</v>
       </c>
       <c r="N14">
-        <v>177.557448322067</v>
+        <v>535.437653</v>
       </c>
       <c r="O14">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="P14">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="Q14">
-        <v>13.92300864705596</v>
+        <v>22.56322371127488</v>
       </c>
       <c r="R14">
-        <v>13.92300864705596</v>
+        <v>203.069013401474</v>
       </c>
       <c r="S14">
-        <v>0.0002635918350629861</v>
+        <v>0.0004109408627481926</v>
       </c>
       <c r="T14">
-        <v>0.0002635918350629861</v>
+        <v>0.0004109408627481927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0784141064124855</v>
+        <v>0.1264193333333333</v>
       </c>
       <c r="H15">
-        <v>0.0784141064124855</v>
+        <v>0.379258</v>
       </c>
       <c r="I15">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="J15">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>158.530890115239</v>
+        <v>165.0353776666667</v>
       </c>
       <c r="N15">
-        <v>158.530890115239</v>
+        <v>495.106133</v>
       </c>
       <c r="O15">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="P15">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="Q15">
-        <v>12.4310580871624</v>
+        <v>20.86366242103489</v>
       </c>
       <c r="R15">
-        <v>12.4310580871624</v>
+        <v>187.772961789314</v>
       </c>
       <c r="S15">
-        <v>0.0002353460732542588</v>
+        <v>0.0003799869887875469</v>
       </c>
       <c r="T15">
-        <v>0.0002353460732542588</v>
+        <v>0.0003799869887875469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0784141064124855</v>
+        <v>0.1264193333333333</v>
       </c>
       <c r="H16">
-        <v>0.0784141064124855</v>
+        <v>0.379258</v>
       </c>
       <c r="I16">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="J16">
-        <v>0.001248025921741306</v>
+        <v>0.001982799264220019</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>117.679866219542</v>
+        <v>125.0343833333333</v>
       </c>
       <c r="N16">
-        <v>117.679866219542</v>
+        <v>375.10315</v>
       </c>
       <c r="O16">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="P16">
-        <v>0.1399818144624068</v>
+        <v>0.145191897885119</v>
       </c>
       <c r="Q16">
-        <v>9.227761552346225</v>
+        <v>15.80676338474444</v>
       </c>
       <c r="R16">
-        <v>9.227761552346225</v>
+        <v>142.2608704627</v>
       </c>
       <c r="S16">
-        <v>0.0001747009330214657</v>
+        <v>0.000287886388297322</v>
       </c>
       <c r="T16">
-        <v>0.0001747009330214657</v>
+        <v>0.000287886388297322</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>6.55596789054391</v>
+        <v>0.2530783333333333</v>
       </c>
       <c r="H17">
-        <v>6.55596789054391</v>
+        <v>0.759235</v>
       </c>
       <c r="I17">
-        <v>0.1043436983960795</v>
+        <v>0.003969357533315279</v>
       </c>
       <c r="J17">
-        <v>0.1043436983960795</v>
+        <v>0.003969357533315279</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>105.633267873615</v>
+        <v>108.2550863333333</v>
       </c>
       <c r="N17">
-        <v>105.633267873615</v>
+        <v>324.765259</v>
       </c>
       <c r="O17">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="P17">
-        <v>0.1256522205502524</v>
+        <v>0.125707513576898</v>
       </c>
       <c r="Q17">
-        <v>692.5283123526434</v>
+        <v>27.39701682409611</v>
       </c>
       <c r="R17">
-        <v>692.5283123526434</v>
+        <v>246.573151416865</v>
       </c>
       <c r="S17">
-        <v>0.0131110174038932</v>
+        <v>0.0004989780660107928</v>
       </c>
       <c r="T17">
-        <v>0.0131110174038932</v>
+        <v>0.0004989780660107928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>6.55596789054391</v>
+        <v>0.2530783333333333</v>
       </c>
       <c r="H18">
-        <v>6.55596789054391</v>
+        <v>0.759235</v>
       </c>
       <c r="I18">
-        <v>0.1043436983960795</v>
+        <v>0.003969357533315279</v>
       </c>
       <c r="J18">
-        <v>0.1043436983960795</v>
+        <v>0.003969357533315279</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>281.278201979299</v>
+        <v>284.3623303333333</v>
       </c>
       <c r="N18">
-        <v>281.278201979299</v>
+        <v>853.0869909999999</v>
       </c>
       <c r="O18">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="P18">
-        <v>0.3345842780644422</v>
+        <v>0.3302060227550619</v>
       </c>
       <c r="Q18">
-        <v>1844.050860486209</v>
+        <v>71.96594462354278</v>
       </c>
       <c r="R18">
-        <v>1844.050860486209</v>
+        <v>647.6935016118849</v>
       </c>
       <c r="S18">
-        <v>0.03491176099842615</v>
+        <v>0.001310705763968881</v>
       </c>
       <c r="T18">
-        <v>0.03491176099842615</v>
+        <v>0.001310705763968881</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>6.55596789054391</v>
+        <v>0.2530783333333333</v>
       </c>
       <c r="H19">
-        <v>6.55596789054391</v>
+        <v>0.759235</v>
       </c>
       <c r="I19">
-        <v>0.1043436983960795</v>
+        <v>0.003969357533315279</v>
       </c>
       <c r="J19">
-        <v>0.1043436983960795</v>
+        <v>0.003969357533315279</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>177.557448322067</v>
+        <v>178.4792176666666</v>
       </c>
       <c r="N19">
-        <v>177.557448322067</v>
+        <v>535.437653</v>
       </c>
       <c r="O19">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="P19">
-        <v>0.2112070193984513</v>
+        <v>0.2072528824090754</v>
       </c>
       <c r="Q19">
-        <v>1164.060929926381</v>
+        <v>45.16922294171722</v>
       </c>
       <c r="R19">
-        <v>1164.060929926381</v>
+        <v>406.523006475455</v>
       </c>
       <c r="S19">
-        <v>0.02203812153124691</v>
+        <v>0.0008226607900917689</v>
       </c>
       <c r="T19">
-        <v>0.02203812153124691</v>
+        <v>0.000822660790091769</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>6.55596789054391</v>
+        <v>0.2530783333333333</v>
       </c>
       <c r="H20">
-        <v>6.55596789054391</v>
+        <v>0.759235</v>
       </c>
       <c r="I20">
-        <v>0.1043436983960795</v>
+        <v>0.003969357533315279</v>
       </c>
       <c r="J20">
-        <v>0.1043436983960795</v>
+        <v>0.003969357533315279</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>158.530890115239</v>
+        <v>165.0353776666667</v>
       </c>
       <c r="N20">
-        <v>158.530890115239</v>
+        <v>495.106133</v>
       </c>
       <c r="O20">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="P20">
-        <v>0.1885746675244474</v>
+        <v>0.1916416833738457</v>
       </c>
       <c r="Q20">
-        <v>1039.323425254852</v>
+        <v>41.76687832091723</v>
       </c>
       <c r="R20">
-        <v>1039.323425254852</v>
+        <v>375.901904888255</v>
       </c>
       <c r="S20">
-        <v>0.0196765782333119</v>
+        <v>0.0007606943595971957</v>
       </c>
       <c r="T20">
-        <v>0.0196765782333119</v>
+        <v>0.0007606943595971957</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2530783333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.759235</v>
+      </c>
+      <c r="I21">
+        <v>0.003969357533315279</v>
+      </c>
+      <c r="J21">
+        <v>0.003969357533315279</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>125.0343833333333</v>
+      </c>
+      <c r="N21">
+        <v>375.10315</v>
+      </c>
+      <c r="O21">
+        <v>0.145191897885119</v>
+      </c>
+      <c r="P21">
+        <v>0.145191897885119</v>
+      </c>
+      <c r="Q21">
+        <v>31.64349334336111</v>
+      </c>
+      <c r="R21">
+        <v>284.79144009025</v>
+      </c>
+      <c r="S21">
+        <v>0.0005763185536466396</v>
+      </c>
+      <c r="T21">
+        <v>0.0005763185536466397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.801276000000001</v>
+      </c>
+      <c r="H22">
+        <v>20.403828</v>
+      </c>
+      <c r="I22">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="J22">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>108.2550863333333</v>
+      </c>
+      <c r="N22">
+        <v>324.765259</v>
+      </c>
+      <c r="O22">
+        <v>0.125707513576898</v>
+      </c>
+      <c r="P22">
+        <v>0.125707513576898</v>
+      </c>
+      <c r="Q22">
+        <v>736.2727205568281</v>
+      </c>
+      <c r="R22">
+        <v>6626.454485011453</v>
+      </c>
+      <c r="S22">
+        <v>0.01340963289976998</v>
+      </c>
+      <c r="T22">
+        <v>0.01340963289976998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.801276000000001</v>
+      </c>
+      <c r="H23">
+        <v>20.403828</v>
+      </c>
+      <c r="I23">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="J23">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>284.3623303333333</v>
+      </c>
+      <c r="N23">
+        <v>853.0869909999999</v>
+      </c>
+      <c r="O23">
+        <v>0.3302060227550619</v>
+      </c>
+      <c r="P23">
+        <v>0.3302060227550619</v>
+      </c>
+      <c r="Q23">
+        <v>1934.026692600172</v>
+      </c>
+      <c r="R23">
+        <v>17406.24023340155</v>
+      </c>
+      <c r="S23">
+        <v>0.03522415980115465</v>
+      </c>
+      <c r="T23">
+        <v>0.03522415980115465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.801276000000001</v>
+      </c>
+      <c r="H24">
+        <v>20.403828</v>
+      </c>
+      <c r="I24">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="J24">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>178.4792176666666</v>
+      </c>
+      <c r="N24">
+        <v>535.437653</v>
+      </c>
+      <c r="O24">
+        <v>0.2072528824090754</v>
+      </c>
+      <c r="P24">
+        <v>0.2072528824090754</v>
+      </c>
+      <c r="Q24">
+        <v>1213.886419615076</v>
+      </c>
+      <c r="R24">
+        <v>10924.97777653568</v>
+      </c>
+      <c r="S24">
+        <v>0.02210834493059008</v>
+      </c>
+      <c r="T24">
+        <v>0.02210834493059008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6.55596789054391</v>
-      </c>
-      <c r="H21">
-        <v>6.55596789054391</v>
-      </c>
-      <c r="I21">
-        <v>0.1043436983960795</v>
-      </c>
-      <c r="J21">
-        <v>0.1043436983960795</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>117.679866219542</v>
-      </c>
-      <c r="N21">
-        <v>117.679866219542</v>
-      </c>
-      <c r="O21">
-        <v>0.1399818144624068</v>
-      </c>
-      <c r="P21">
-        <v>0.1399818144624068</v>
-      </c>
-      <c r="Q21">
-        <v>771.5054242988203</v>
-      </c>
-      <c r="R21">
-        <v>771.5054242988203</v>
-      </c>
-      <c r="S21">
-        <v>0.01460622022920133</v>
-      </c>
-      <c r="T21">
-        <v>0.01460622022920133</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.801276000000001</v>
+      </c>
+      <c r="H25">
+        <v>20.403828</v>
+      </c>
+      <c r="I25">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="J25">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>165.0353776666667</v>
+      </c>
+      <c r="N25">
+        <v>495.106133</v>
+      </c>
+      <c r="O25">
+        <v>0.1916416833738457</v>
+      </c>
+      <c r="P25">
+        <v>0.1916416833738457</v>
+      </c>
+      <c r="Q25">
+        <v>1122.451153275236</v>
+      </c>
+      <c r="R25">
+        <v>10102.06037947713</v>
+      </c>
+      <c r="S25">
+        <v>0.02044304711162068</v>
+      </c>
+      <c r="T25">
+        <v>0.02044304711162068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.801276000000001</v>
+      </c>
+      <c r="H26">
+        <v>20.403828</v>
+      </c>
+      <c r="I26">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="J26">
+        <v>0.1066732808422547</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>125.0343833333333</v>
+      </c>
+      <c r="N26">
+        <v>375.10315</v>
+      </c>
+      <c r="O26">
+        <v>0.145191897885119</v>
+      </c>
+      <c r="P26">
+        <v>0.145191897885119</v>
+      </c>
+      <c r="Q26">
+        <v>850.3933505398001</v>
+      </c>
+      <c r="R26">
+        <v>7653.540154858201</v>
+      </c>
+      <c r="S26">
+        <v>0.01548809609911926</v>
+      </c>
+      <c r="T26">
+        <v>0.01548809609911926</v>
       </c>
     </row>
   </sheetData>
